--- a/Project0/Docs/Project0_Tables.xlsx
+++ b/Project0/Docs/Project0_Tables.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16880" windowHeight="14040" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attachement Descriptives" sheetId="3" r:id="rId2"/>
+    <sheet name="PD Descriptives" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Variable</t>
   </si>
@@ -148,13 +150,58 @@
   </si>
   <si>
     <t>49.01 (9.49)</t>
+  </si>
+  <si>
+    <t>49.94 (10.03)</t>
+  </si>
+  <si>
+    <t>Treatment Group</t>
+  </si>
+  <si>
+    <t>Attachment Baseline</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Control Group (26/23)</t>
+  </si>
+  <si>
+    <t>Placebo (26/23)</t>
+  </si>
+  <si>
+    <t>High (26/16)</t>
+  </si>
+  <si>
+    <t>Medium (26/20)</t>
+  </si>
+  <si>
+    <t>Low (26/21)</t>
+  </si>
+  <si>
+    <t>PD Baseline</t>
+  </si>
+  <si>
+    <t>PD Year1</t>
+  </si>
+  <si>
+    <t>Attachment Year1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +225,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,8 +267,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,17 +287,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -249,6 +306,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -257,9 +316,47 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -287,17 +384,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:H9"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Variable"/>
-    <tableColumn id="8" name="Overall _x000a_(n=130)" dataDxfId="5"/>
-    <tableColumn id="2" name="Control Group_x000a_(n=26)" dataDxfId="4"/>
-    <tableColumn id="3" name="Placebo Group_x000a_(n=26)" dataDxfId="3"/>
-    <tableColumn id="4" name="Low Trt Group_x000a_(n=26)" dataDxfId="2"/>
-    <tableColumn id="5" name="Medium Trt Group_x000a_(n=26)" dataDxfId="1"/>
-    <tableColumn id="6" name="High Trt Group_x000a_(n=26)" dataDxfId="0"/>
+    <tableColumn id="8" name="Overall _x000a_(n=130)" dataDxfId="17"/>
+    <tableColumn id="2" name="Control Group_x000a_(n=26)" dataDxfId="16"/>
+    <tableColumn id="3" name="Placebo Group_x000a_(n=26)" dataDxfId="15"/>
+    <tableColumn id="4" name="Low Trt Group_x000a_(n=26)" dataDxfId="14"/>
+    <tableColumn id="5" name="Medium Trt Group_x000a_(n=26)" dataDxfId="13"/>
+    <tableColumn id="6" name="High Trt Group_x000a_(n=26)" dataDxfId="12"/>
     <tableColumn id="7" name="Pvalue"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F6" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Treatment Group"/>
+    <tableColumn id="2" name="Attachment Baseline" dataDxfId="4"/>
+    <tableColumn id="3" name="SD" dataDxfId="3"/>
+    <tableColumn id="4" name="Attachment Year1" dataDxfId="2"/>
+    <tableColumn id="5" name="SD2" dataDxfId="1"/>
+    <tableColumn id="6" name="Difference" dataDxfId="0">
+      <calculatedColumnFormula>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Treatment Group"/>
+    <tableColumn id="2" name="PD Baseline" dataDxfId="9"/>
+    <tableColumn id="3" name="SD" dataDxfId="8"/>
+    <tableColumn id="4" name="PD Year1" dataDxfId="7"/>
+    <tableColumn id="5" name="SD2" dataDxfId="6"/>
+    <tableColumn id="6" name="Difference" dataDxfId="5">
+      <calculatedColumnFormula>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -673,20 +804,22 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -694,22 +827,22 @@
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5">
@@ -723,12 +856,12 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="5">
         <v>0.21629999999999999</v>
       </c>
@@ -740,22 +873,22 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="5"/>
@@ -764,22 +897,22 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="5"/>
@@ -788,22 +921,22 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="5"/>
@@ -812,22 +945,22 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="5"/>
@@ -836,22 +969,22 @@
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5">
@@ -859,6 +992,327 @@
       </c>
       <c r="J9" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2.4611573899999999</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.68741852999999997</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2.3263311400000002</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.55074142000000004</v>
+      </c>
+      <c r="F2" s="9">
+        <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
+        <v>0.1348262499999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.7927454899999999</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.64563391999999997</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.74323724</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.54184062</v>
+      </c>
+      <c r="F3" s="10">
+        <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
+        <v>4.950824999999992E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.0672220499999998</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.98687977000000005</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.0820148000000001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.06023351</v>
+      </c>
+      <c r="F4" s="10">
+        <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
+        <v>-1.4792750000000243E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.1726614099999999</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.65599474000000002</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.2370261600000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.65176149000000005</v>
+      </c>
+      <c r="F5" s="10">
+        <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
+        <v>-6.4364750000000193E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.2365902800000002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.85770296000000001</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.1487569799999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.91510961000000002</v>
+      </c>
+      <c r="F6" s="10">
+        <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
+        <v>8.7833300000000225E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3.2818159200000001</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.47318661000000001</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2.94971936</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.45520643999999999</v>
+      </c>
+      <c r="F2" s="9">
+        <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
+        <v>0.3320965600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.0879122699999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.37173901999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2.7494688799999998</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.48183234000000003</v>
+      </c>
+      <c r="F3" s="10">
+        <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
+        <v>0.33844339000000012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3.1656134699999998</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.59330751999999998</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.0183314600000002</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.57797374000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
+        <v>0.14728200999999963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3.0485901000000002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.40165287</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.8448760100000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.46901798</v>
+      </c>
+      <c r="F5" s="10">
+        <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
+        <v>0.20371409000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.1079226499999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.27302625000000003</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.7986215300000001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.42314235</v>
+      </c>
+      <c r="F6" s="10">
+        <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
+        <v>0.30930111999999976</v>
       </c>
     </row>
   </sheetData>

--- a/Project0/Docs/Project0_Tables.xlsx
+++ b/Project0/Docs/Project0_Tables.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16880" windowHeight="14040" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16880" windowHeight="14040" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Attachement Descriptives" sheetId="3" r:id="rId2"/>
     <sheet name="PD Descriptives" sheetId="2" r:id="rId3"/>
+    <sheet name="Attach Models" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Variable</t>
   </si>
@@ -192,6 +193,52 @@
   </si>
   <si>
     <t>Attachment Year1</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Model 1
+Crude- TRT GRPS</t>
+  </si>
+  <si>
+    <t>Intercept (control)</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Model 2- Age</t>
+  </si>
+  <si>
+    <t>Pvalue2</t>
+  </si>
+  <si>
+    <t>Crude int: Overall trtgroups have a significant effect on attachment loss (p=.0451), with low and medium and control treatments having the least amount of loss</t>
+  </si>
+  <si>
+    <t>Compared to control group</t>
+  </si>
+  <si>
+    <t>Age is significantly different in trtgroups, however not related to the outcome (p=.0793). But when put in the model Adjusting for age differences in treatment groups, the effect of treatment group on attachment loss is more signficant (.0293) with low and medium have the least amount of loss. Age could be a precision variable?</t>
   </si>
 </sst>
 </file>
@@ -199,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +277,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,8 +361,17 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -322,37 +398,37 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -405,11 +481,11 @@
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Treatment Group"/>
-    <tableColumn id="2" name="Attachment Baseline" dataDxfId="4"/>
-    <tableColumn id="3" name="SD" dataDxfId="3"/>
-    <tableColumn id="4" name="Attachment Year1" dataDxfId="2"/>
-    <tableColumn id="5" name="SD2" dataDxfId="1"/>
-    <tableColumn id="6" name="Difference" dataDxfId="0">
+    <tableColumn id="2" name="Attachment Baseline" dataDxfId="10"/>
+    <tableColumn id="3" name="SD" dataDxfId="9"/>
+    <tableColumn id="4" name="Attachment Year1" dataDxfId="8"/>
+    <tableColumn id="5" name="SD2" dataDxfId="7"/>
+    <tableColumn id="6" name="Difference" dataDxfId="6">
       <calculatedColumnFormula>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -418,17 +494,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Treatment Group"/>
-    <tableColumn id="2" name="PD Baseline" dataDxfId="9"/>
-    <tableColumn id="3" name="SD" dataDxfId="8"/>
-    <tableColumn id="4" name="PD Year1" dataDxfId="7"/>
-    <tableColumn id="5" name="SD2" dataDxfId="6"/>
-    <tableColumn id="6" name="Difference" dataDxfId="5">
+    <tableColumn id="2" name="PD Baseline" dataDxfId="4"/>
+    <tableColumn id="3" name="SD" dataDxfId="3"/>
+    <tableColumn id="4" name="PD Year1" dataDxfId="2"/>
+    <tableColumn id="5" name="SD2" dataDxfId="1"/>
+    <tableColumn id="6" name="Difference" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Model"/>
+    <tableColumn id="2" name="Model 1_x000a_Crude- TRT GRPS"/>
+    <tableColumn id="7" name="SD"/>
+    <tableColumn id="3" name="pvalue"/>
+    <tableColumn id="4" name="Model 2- Age"/>
+    <tableColumn id="5" name="SD2"/>
+    <tableColumn id="6" name="Pvalue2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,7 +851,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -821,6 +913,9 @@
       </c>
       <c r="G2" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1012,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1176,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1327,4 +1422,203 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>0.22169</v>
+      </c>
+      <c r="C2">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.171E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.14884</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>-0.13461999999999999</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7.9060000000000005E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-0.13805000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>8.5300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.20388000000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8.0920000000000006E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>-0.20407</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7.9530000000000003E-2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.21514</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8.1970000000000001E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-0.20374999999999999</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8.0909999999999996E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-5.6899999999999999E-2</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8.7279999999999996E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="E6" s="13">
+        <v>-6.1760000000000002E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>8.584E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.47360000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="13">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.1323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Project0/Docs/Project0_Tables.xlsx
+++ b/Project0/Docs/Project0_Tables.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16880" windowHeight="14040" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Attachement Descriptives" sheetId="3" r:id="rId2"/>
     <sheet name="PD Descriptives" sheetId="2" r:id="rId3"/>
     <sheet name="Attach Models" sheetId="4" r:id="rId4"/>
+    <sheet name="PD Models" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Variable</t>
   </si>
@@ -34,26 +35,6 @@
 (n=130)</t>
   </si>
   <si>
-    <t>Control Group
-(n=26)</t>
-  </si>
-  <si>
-    <t>Placebo Group
-(n=26)</t>
-  </si>
-  <si>
-    <t>Low Trt Group
-(n=26)</t>
-  </si>
-  <si>
-    <t>Medium Trt Group
-(n=26)</t>
-  </si>
-  <si>
-    <t>High Trt Group
-(n=26)</t>
-  </si>
-  <si>
     <t>10(38.46)</t>
   </si>
   <si>
@@ -166,9 +147,6 @@
   </si>
   <si>
     <t>SD2</t>
-  </si>
-  <si>
-    <t>Difference</t>
   </si>
   <si>
     <t>Control Group (26/23)</t>
@@ -223,30 +201,119 @@
     <t>pvalue</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>Model 2- Age</t>
   </si>
   <si>
     <t>Pvalue2</t>
   </si>
   <si>
-    <t>Crude int: Overall trtgroups have a significant effect on attachment loss (p=.0451), with low and medium and control treatments having the least amount of loss</t>
-  </si>
-  <si>
     <t>Compared to control group</t>
   </si>
   <si>
-    <t>Age is significantly different in trtgroups, however not related to the outcome (p=.0793). But when put in the model Adjusting for age differences in treatment groups, the effect of treatment group on attachment loss is more signficant (.0293) with low and medium have the least amount of loss. Age could be a precision variable?</t>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>intercept (control)</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Crude overall not significant (.0899) when pairwise compairsons are preformed low to medium is (.0456) and medium to high is (.0436).</t>
+  </si>
+  <si>
+    <t>*precision variables- attach base, logical explanation why also be in code</t>
+  </si>
+  <si>
+    <t>159.69 (10.05)</t>
+  </si>
+  <si>
+    <t>154.38 (10.95)</t>
+  </si>
+  <si>
+    <t>160.61(8.53)</t>
+  </si>
+  <si>
+    <t>155.46 (15.73)</t>
+  </si>
+  <si>
+    <t>157.38(9.65)</t>
+  </si>
+  <si>
+    <t>157.5 (11.34)</t>
+  </si>
+  <si>
+    <t>Average Difference</t>
+  </si>
+  <si>
+    <t>Sites Measured (SD)</t>
+  </si>
+  <si>
+    <t>Medium
+(n=26)</t>
+  </si>
+  <si>
+    <t>Low
+(n=26)</t>
+  </si>
+  <si>
+    <t>High
+(n=26)</t>
+  </si>
+  <si>
+    <t>Placebo
+(n=26)</t>
+  </si>
+  <si>
+    <t>Control
+(n=26)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>AttachBase</t>
+  </si>
+  <si>
+    <t>Model Variables</t>
+  </si>
+  <si>
+    <t>Adjusted for attachment at base the overall model is more significant (p=&lt;.0001)</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>pd base</t>
+  </si>
+  <si>
+    <t>adjusting to pdbase sign (0.0339), error = 0.06662 r2= 0.1153</t>
+  </si>
+  <si>
+    <t>adjusting for pdbase and sex (0.0236
+) error =0.06555 r2= 0.1385</t>
+  </si>
+  <si>
+    <t>Crude int: Overall trtgroups have a significant effect on attachment loss (p=.0451), with low and medium and control treatments having the least amount of loss. Error of 0.07187</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -299,15 +366,27 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -315,8 +394,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,42 +469,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -384,6 +613,45 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -394,9 +662,75 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
@@ -434,58 +768,660 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="138"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="38"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estimates of Attachment Loss </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Compared to Control Group)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.285528627783802"/>
+          <c:y val="0.0484848484848485"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Crude Estimates</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Attach Models'!$A$18:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Placebo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Attach Models'!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Final Estimates</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Attach Models'!$A$18:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Placebo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Attach Models'!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.10707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.25312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.28293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.13372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="2096517784"/>
+        <c:axId val="2096520728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2096517784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2096520728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2096520728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2096517784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="138"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="38"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crude Estimate of Pocket Depth Compared to Control Group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PD Models'!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>placebo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PD Models'!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PD Models'!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>placebo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PD Models'!$E$11:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.03344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="2105606424"/>
+        <c:axId val="2105609400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2105606424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105609400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105609400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105606424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H10" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="8" name="Overall _x000a_(n=130)" dataDxfId="17"/>
-    <tableColumn id="2" name="Control Group_x000a_(n=26)" dataDxfId="16"/>
-    <tableColumn id="3" name="Placebo Group_x000a_(n=26)" dataDxfId="15"/>
-    <tableColumn id="4" name="Low Trt Group_x000a_(n=26)" dataDxfId="14"/>
-    <tableColumn id="5" name="Medium Trt Group_x000a_(n=26)" dataDxfId="13"/>
-    <tableColumn id="6" name="High Trt Group_x000a_(n=26)" dataDxfId="12"/>
-    <tableColumn id="7" name="Pvalue"/>
+    <tableColumn id="1" name="Variable" dataDxfId="28"/>
+    <tableColumn id="8" name="Overall _x000a_(n=130)" dataDxfId="27"/>
+    <tableColumn id="2" name="Control_x000a_(n=26)" dataDxfId="26"/>
+    <tableColumn id="3" name="Placebo_x000a_(n=26)" dataDxfId="25"/>
+    <tableColumn id="4" name="Low_x000a_(n=26)" dataDxfId="24"/>
+    <tableColumn id="5" name="Medium_x000a_(n=26)" dataDxfId="23"/>
+    <tableColumn id="6" name="High_x000a_(n=26)" dataDxfId="22"/>
+    <tableColumn id="7" name="Pvalue" dataDxfId="21"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F6" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F6" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Treatment Group"/>
-    <tableColumn id="2" name="Attachment Baseline" dataDxfId="10"/>
-    <tableColumn id="3" name="SD" dataDxfId="9"/>
-    <tableColumn id="4" name="Attachment Year1" dataDxfId="8"/>
-    <tableColumn id="5" name="SD2" dataDxfId="7"/>
-    <tableColumn id="6" name="Difference" dataDxfId="6">
+    <tableColumn id="2" name="Attachment Baseline" dataDxfId="19"/>
+    <tableColumn id="3" name="SD" dataDxfId="18"/>
+    <tableColumn id="4" name="Attachment Year1" dataDxfId="17"/>
+    <tableColumn id="5" name="SD2" dataDxfId="16"/>
+    <tableColumn id="6" name="Average Difference" dataDxfId="15">
       <calculatedColumnFormula>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -494,15 +1430,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Treatment Group"/>
-    <tableColumn id="2" name="PD Baseline" dataDxfId="4"/>
-    <tableColumn id="3" name="SD" dataDxfId="3"/>
-    <tableColumn id="4" name="PD Year1" dataDxfId="2"/>
-    <tableColumn id="5" name="SD2" dataDxfId="1"/>
-    <tableColumn id="6" name="Difference" dataDxfId="0">
+    <tableColumn id="2" name="PD Baseline" dataDxfId="13"/>
+    <tableColumn id="3" name="SD" dataDxfId="12"/>
+    <tableColumn id="4" name="PD Year1" dataDxfId="11"/>
+    <tableColumn id="5" name="SD2" dataDxfId="10"/>
+    <tableColumn id="6" name="Average Difference" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -511,18 +1447,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Model Variables" dataDxfId="8"/>
+    <tableColumn id="2" name="Model 1_x000a_Crude- TRT GRPS" dataDxfId="7"/>
+    <tableColumn id="7" name="SD" dataDxfId="6"/>
+    <tableColumn id="3" name="pvalue" dataDxfId="5"/>
+    <tableColumn id="4" name="Model 2- Age" dataDxfId="4"/>
+    <tableColumn id="5" name="SD2" dataDxfId="3"/>
+    <tableColumn id="6" name="Pvalue2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G7" totalsRowShown="0">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Model"/>
     <tableColumn id="2" name="Model 1_x000a_Crude- TRT GRPS"/>
-    <tableColumn id="7" name="SD"/>
-    <tableColumn id="3" name="pvalue"/>
-    <tableColumn id="4" name="Model 2- Age"/>
-    <tableColumn id="5" name="SD2"/>
-    <tableColumn id="6" name="Pvalue2"/>
+    <tableColumn id="3" name="SD"/>
+    <tableColumn id="4" name="pvalue"/>
+    <tableColumn id="5" name="Model 2"/>
+    <tableColumn id="6" name="SD2"/>
+    <tableColumn id="7" name="Pvalue2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -848,245 +1800,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="G8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="17">
         <v>0.84519999999999995</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.61680000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1118,140 +2096,145 @@
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
         <v>2.4611573899999999</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="3">
         <v>0.68741852999999997</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="3">
         <v>2.3263311400000002</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <v>0.55074142000000004</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="3">
         <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
         <v>0.1348262499999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
         <v>1.7927454899999999</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="4">
         <v>0.64563391999999997</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="4">
         <v>1.74323724</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>0.54184062</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
         <v>4.950824999999992E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.0672220499999998</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="4">
         <v>0.98687977000000005</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>2.0820148000000001</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>1.06023351</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
         <v>-1.4792750000000243E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="10">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
         <v>2.1726614099999999</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="4">
         <v>0.65599474000000002</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>2.2370261600000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>0.65176149000000005</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
         <v>-6.4364750000000193E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="10">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
         <v>2.2365902800000002</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="4">
         <v>0.85770296000000001</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>2.1487569799999999</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>0.91510961000000002</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <f>Table14[[#This Row],[Attachment Baseline]]-Table14[[#This Row],[Attachment Year1]]</f>
         <v>8.7833300000000225E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1269,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1282,132 +2265,151 @@
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
         <v>3.2818159200000001</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="3">
         <v>0.47318661000000001</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="3">
         <v>2.94971936</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <v>0.45520643999999999</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="3">
         <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
         <v>0.3320965600000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="8">
+        <v>0.22169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="9">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3">
         <v>3.0879122699999999</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="3">
         <v>0.37173901999999998</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="4">
         <v>2.7494688799999998</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>0.48183234000000003</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
         <v>0.33844339000000012</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="10">
+        <v>-0.13461999999999999</v>
+      </c>
+      <c r="I3">
+        <f>H2+H3</f>
+        <v>8.7070000000000008E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
         <v>3.1656134699999998</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="4">
         <v>0.59330751999999998</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>3.0183314600000002</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>0.57797374000000001</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
         <v>0.14728200999999963</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="8">
+        <v>-0.20388000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="10">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
         <v>3.0485901000000002</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="4">
         <v>0.40165287</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>2.8448760100000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>0.46901798</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
         <v>0.20371409000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="10">
+        <v>-0.21514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="10">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
         <v>3.1079226499999999</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="4">
         <v>0.27302625000000003</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>2.7986215300000001</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>0.42314235</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <f>Table1[[#This Row],[PD Baseline]]-Table1[[#This Row],[PD Year1]]</f>
         <v>0.30930111999999976</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-5.6899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1426,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1441,179 +2443,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.22169</v>
+      </c>
+      <c r="C2" s="28">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="E2" s="29">
+        <v>-0.10707</v>
+      </c>
+      <c r="F2" s="29">
+        <v>9.3039999999999998E-2</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.25269999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="28">
+        <v>-0.13461999999999999</v>
+      </c>
+      <c r="C3" s="29">
+        <v>7.9060000000000005E-2</v>
+      </c>
+      <c r="D3" s="32">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="E3" s="29">
+        <v>-4.2020000000000002E-2</v>
+      </c>
+      <c r="F3" s="29">
+        <v>7.6160000000000005E-2</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.58240000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="30">
+        <v>-0.20388000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <v>8.0920000000000006E-2</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E4" s="29">
+        <v>-0.14605000000000001</v>
+      </c>
+      <c r="F4" s="29">
+        <v>7.5920000000000001E-2</v>
+      </c>
+      <c r="G4" s="25">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="30">
+        <v>-0.21514</v>
+      </c>
+      <c r="C5" s="29">
+        <v>8.1970000000000001E-2</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E5" s="29">
+        <v>-0.17585999999999999</v>
+      </c>
+      <c r="F5" s="29">
+        <v>7.6219999999999996E-2</v>
+      </c>
+      <c r="G5" s="27">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="30">
+        <v>-5.6899999999999999E-2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>8.7279999999999996E-2</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="E6" s="29">
+        <v>-2.665E-2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>8.0869999999999997E-2</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.13547999999999999</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2.9610000000000001E-2</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.12902</v>
+      </c>
+      <c r="F7" s="29">
+        <v>3.039E-2</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.22169</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.22169</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-0.10707</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-0.10707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10">
+        <v>-0.13461999999999999</v>
+      </c>
+      <c r="C19">
+        <f>C18+B19</f>
+        <v>8.7070000000000008E-2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>-4.2020000000000002E-2</v>
+      </c>
+      <c r="E19">
+        <f>E18+D19</f>
+        <v>-0.14909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-0.20388000000000001</v>
+      </c>
+      <c r="C20">
+        <f>C18+B20</f>
+        <v>1.7809999999999993E-2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>-0.14605000000000001</v>
+      </c>
+      <c r="E20">
+        <f>E18+D20</f>
+        <v>-0.25312000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="10">
+        <v>-0.21514</v>
+      </c>
+      <c r="C21">
+        <f>C18+B21</f>
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-0.17585999999999999</v>
+      </c>
+      <c r="E21">
+        <f>E18+D21</f>
+        <v>-0.28293000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8">
+        <v>-5.6899999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <f>C18+B22</f>
+        <v>0.16478999999999999</v>
+      </c>
+      <c r="D22" s="13">
+        <v>-2.665E-2</v>
+      </c>
+      <c r="E22">
+        <f>E18+D22</f>
+        <v>-0.13372000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>0.22169</v>
-      </c>
-      <c r="C2">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1E-4</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1.171E-2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.14884</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0.9375</v>
+        <v>62</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.33817000000000003</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5.466E-2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-3.3439999999999998E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.19164</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.86180000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>-0.13461999999999999</v>
-      </c>
-      <c r="C3" s="13">
-        <v>7.9060000000000005E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>-0.13805000000000001</v>
-      </c>
-      <c r="F3" s="13">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>8.5300000000000001E-2</v>
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1.1520000000000001E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3.2849999999999997E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>7.6840000000000006E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-0.20388000000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <v>8.0920000000000006E-2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1.34E-2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>-0.20407</v>
-      </c>
-      <c r="F4" s="13">
-        <v>7.9530000000000003E-2</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1.18E-2</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="11">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="C4" s="11">
+        <v>7.9119999999999996E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-0.12484000000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7.7990000000000004E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.11269999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-0.21514</v>
-      </c>
-      <c r="C5" s="13">
-        <v>8.1970000000000001E-2</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1.01E-2</v>
-      </c>
-      <c r="E5" s="13">
-        <v>-0.20374999999999999</v>
-      </c>
-      <c r="F5" s="13">
-        <v>8.0909999999999996E-2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1.35E-2</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="11">
+        <v>-0.13561999999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8.0149999999999999E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-0.10843999999999999</v>
+      </c>
+      <c r="F5" s="11">
+        <v>8.0060000000000006E-2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.1787</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-5.6899999999999999E-2</v>
-      </c>
-      <c r="C6" s="13">
-        <v>8.7279999999999996E-2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.51590000000000003</v>
-      </c>
-      <c r="E6" s="13">
-        <v>-6.1760000000000002E-2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>8.584E-2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.47360000000000002</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4.4130000000000003E-2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>8.5339999999999999E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5.6219999999999999E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.50609999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.11654</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5.6030000000000003E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.11303000000000001</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5.5939999999999997E-2</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.33817000000000003</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.33817000000000003</v>
+      </c>
+      <c r="D11" s="13">
+        <v>-3.3439999999999998E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>-3.3439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.1520000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <f>C11+B12</f>
+        <v>0.34969</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.2849999999999997E-2</v>
+      </c>
+      <c r="E12">
+        <f>E11+D12</f>
+        <v>-5.9000000000000025E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="13">
-        <v>4.0800000000000003E-3</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2.6900000000000001E-3</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.1323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B13" s="13">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="C13">
+        <f>C11+B13</f>
+        <v>0.20617000000000002</v>
+      </c>
+      <c r="D13" s="13">
+        <v>-0.12484000000000001</v>
+      </c>
+      <c r="E13">
+        <f>E11+D13</f>
+        <v>-0.15828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="12">
+        <v>-0.13561999999999999</v>
+      </c>
+      <c r="C14">
+        <f>C11+B14</f>
+        <v>0.20255000000000004</v>
+      </c>
+      <c r="D14" s="12">
+        <v>-0.10843999999999999</v>
+      </c>
+      <c r="E14">
+        <f>E11+D14</f>
+        <v>-0.14188000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="14">
+        <v>4.4130000000000003E-2</v>
+      </c>
+      <c r="C15">
+        <f>C11+B15</f>
+        <v>0.38230000000000003</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5.6219999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <f>E11+D15</f>
+        <v>2.2780000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>69</v>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="60">
+      <c r="A22" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Project0/Docs/Project0_Tables.xlsx
+++ b/Project0/Docs/Project0_Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="7800" yWindow="240" windowWidth="25360" windowHeight="13860" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1068,11 +1068,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2096517784"/>
-        <c:axId val="2096520728"/>
+        <c:axId val="2095972392"/>
+        <c:axId val="-2127466440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2096517784"/>
+        <c:axId val="2095972392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1081,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096520728"/>
+        <c:crossAx val="-2127466440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096520728"/>
+        <c:axId val="-2127466440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096517784"/>
+        <c:crossAx val="2095972392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1160,6 +1160,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Crude Estimates</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1212,6 +1215,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Adjusted Estimates</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1271,11 +1277,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2105606424"/>
-        <c:axId val="2105609400"/>
+        <c:axId val="2124474344"/>
+        <c:axId val="2125221192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105606424"/>
+        <c:axId val="2124474344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105609400"/>
+        <c:crossAx val="2125221192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105609400"/>
+        <c:axId val="2125221192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1309,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105606424"/>
+        <c:crossAx val="2124474344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,16 +1453,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Model Variables" dataDxfId="8"/>
-    <tableColumn id="2" name="Model 1_x000a_Crude- TRT GRPS" dataDxfId="7"/>
-    <tableColumn id="7" name="SD" dataDxfId="6"/>
-    <tableColumn id="3" name="pvalue" dataDxfId="5"/>
-    <tableColumn id="4" name="Model 2- Age" dataDxfId="4"/>
-    <tableColumn id="5" name="SD2" dataDxfId="3"/>
-    <tableColumn id="6" name="Pvalue2" dataDxfId="2"/>
+    <tableColumn id="1" name="Model Variables" dataDxfId="6"/>
+    <tableColumn id="2" name="Model 1_x000a_Crude- TRT GRPS" dataDxfId="5"/>
+    <tableColumn id="7" name="SD" dataDxfId="4"/>
+    <tableColumn id="3" name="pvalue" dataDxfId="3"/>
+    <tableColumn id="4" name="Model 2- Age" dataDxfId="2"/>
+    <tableColumn id="5" name="SD2" dataDxfId="1"/>
+    <tableColumn id="6" name="Pvalue2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2430,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
@@ -2735,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
